--- a/data/tools/extractJson2Excel/preprocess_dang1new.xlsx
+++ b/data/tools/extractJson2Excel/preprocess_dang1new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Chủ đề</t>
   </si>
@@ -25,30 +25,21 @@
     <t>order</t>
   </si>
   <si>
+    <t>system_prompt</t>
+  </si>
+  <si>
+    <t>conversation_history</t>
+  </si>
+  <si>
+    <t>cấu trúc user_input</t>
+  </si>
+  <si>
+    <t>cấu trúc user_input.1</t>
+  </si>
+  <si>
     <t>user_input</t>
   </si>
   <si>
-    <t>system_prompt</t>
-  </si>
-  <si>
-    <t>cấu trúc history</t>
-  </si>
-  <si>
-    <t>cấu trúc history.1</t>
-  </si>
-  <si>
-    <t>cấu trúc history.2</t>
-  </si>
-  <si>
-    <t>cấu trúc history.3</t>
-  </si>
-  <si>
-    <t>cấu trúc history.4</t>
-  </si>
-  <si>
-    <t>conversation_history</t>
-  </si>
-  <si>
     <t>assistant_response</t>
   </si>
   <si>
@@ -70,39 +61,44 @@
     <t>Wash face</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>You are an AI Content Generator for conversational language learning. 
+    <t>"You are an AI Content Generator for conversational language learning. 
 You are given: 
-1. **PHRASE ROBOT TEACHING**: "&lt;Phrase&gt;" 
+1. **PHRASE ROBOT TEACHING**: ""&lt;Phrase&gt;"" 
 Your task: 
 1. Simulate a **12-question-answer conversation** between ROBOT and HỌC SINH (xưng hô cậu - tớ). 
-2. Distribute the conversation across **6 user intent types**: 
-- **intent_positive**: only 2 pairs (User is engaged and happy to continue learning). 
-- **intent_negative**: only 2 pairs (User dislikes or is unwilling to continue learning). 
-- **intent_neutral**: only 2 pairs (User is unsure about engagement or indifferent). 
-- **intent_learn_more**: only 2 pairs (User shows interest and wants to learn more). 
-- **intent_fallback**: only 2 pairs (out-of-scope subject). 
-- **silence**: only 2 pairs (User does not respond or remains silent). 
+2. Distribute the conversation evenly across **6 user intent types** (2 pairs per type, alternating in sequence): 
+- **user_intent_positive**: only 2 pairs 
+- User expresses satisfaction or optimism with **emotional reactions** like ""Hay quá!"", ""Wow, dễ hiểu thật!"". 
+- **user_intent_negative**: only 2 pairs 
+- User shows dislike, dissatisfaction, or complaints like ""Khó quá, tớ không học nổi đâu!"". 
+- **user_intent_neutral**: only 2 pairs 
+- User responds indifferently or without strong emotion like ""Ok."", ""Ừ thì chắc là đúng."". 
+- **user_intent_learn_more**: only 2 pairs 
+- User shows curiosity or interest in learning more, e.g., ""Chỉ tớ thêm với!"", ""Có cách dùng nào khác không?"". 
+- **user_intent_fallback**: only 2 pairs 
+- User says something **unrelated or off-topic**, e.g., ""Học cái này để làm gì nhỉ?"", ""Tớ vừa mua giày mới, đẹp không cậu?"". 
+- **user_silence**: 
+- User remains silent or does not respond, e.g,, ""..."" """", none, 
 3. Ensure that: 
-- The **robot's questions** include **both Vietnamese and A2-B1 level English** for teaching and engagement. 
-- The tone is conversational and friendly (xưng hô "cậu - tớ"). 
-- ROBOT teaches the phrase in multiple contexts (e.g., meaning, example sentences, related phrases). 
-- ROBOT: luôn là dẫn dắt bằng tiếng việt để dạy nói 1 từ/cụm từ/câu tiếng anh nào đó. BẮT BUỘC MỖI CÂU ROBOT NÓI, ĐỀU PHẢI CÓ 1 TỪ/CỤM TỪ/CÂU TIẾNG ANH NÀO ĐÓ. 
+- **Robot's questions** use **both Vietnamese and A2-B1 English** to teach and engage. 
+- The tone is conversational and friendly. 
+- ROBOT teaches the phrase in multiple contexts with examples, meanings, and related phrases. 
+- **Every robot's prompt includes a specific English word/phrase** for learning. 
 ============ 
 **Response Format:** 
-```json
-[
-{
-"robot": "&lt;Robot's question or prompt, luôn là dẫn dắt bằng tiếng việt để dạy nói 1 từ/cụm từ/câu tiếng anh nào đó, mỗi câu robot nói ra đều kèm việc dạy 1 cụm nào đó&gt;",
-"user_answer": "&lt;The student's response&gt;",
-"user_intent": "&lt;User's intent&gt;"
-},
-...
-]
-=====
-Example : 
+```json 
+[ 
+{ ""turn"": 1 
+""robot"": ""&lt;Robot's question or prompt, includes a word/phrase in English&gt;"", 
+""user_answer"": ""&lt;The student's response&gt;"", 
+""user_intent"": ""&lt;User's intent&gt;"", 
+""why_classification"": ""Short reason for this classification, in Vietnamese"" 
+}, 
+... 
+] 
+``` 
+============ 
+**EXAMPLE:** 
 ### 10 Loại Câu Robot Về Từ “Chicken” 
 1. **Giới thiệu từ vựng:** 
 - "Cậu biết từ 'con gà' trong tiếng Anh là gì không? Để tớ nói cho cậu nhé, nó là chicken. Nào, nhắc lại với tớ: chicken!" 
@@ -119,7 +115,7 @@
 7. **Mô tả âm thanh của gà:** 
 - "Gà kêu trong tiếng Anh là gì nhỉ? Người ta nói: 'Chickens cluck.' Nào, cậu thử nói theo nhé!" 
 8. **Dạy từ liên quan:** 
-- "Ngoài từ chicken, cậu có biết 'trứng gà' là gì không? Tớ bật mí nhé: egg. Nói thử: 'Chicken lays eggs.' Cùng nói theo tớ nhé
+- "Ngoài từ chicken, cậu có biết 'trứng gà' là gì không? Tớ bật mí nhé: egg. Nói thử: 'Chicken lays eggs.' Cùng nói theo tớ nhé 
 9. **Liên kết với sở thích:** 
 - "Cậu thích ăn món gà nào nhất? Tớ thì thích fried chicken. Nói thử: 'I love fried chicken.'" 
 10. **Mở rộng câu hỏi:** 
@@ -141,77 +137,91 @@
     <t>Hôm nay chúng ta cùng học cụm 'Wash face nhé. Từ chunk -&gt; câu -&gt; đoạn. Câu sẽ được học từ cụm nhỏ đến cụm to hơn, rồi đến câu, đến đoạn tiếng anh nhé.</t>
   </si>
   <si>
-    <t>[{"role":"assistant","content":"</t>
-  </si>
-  <si>
-    <t>"}]</t>
-  </si>
-  <si>
-    <t>[{"role":"assistant","content":"Hôm nay chúng ta cùng học cụm 'Wake up nhé. Từ chunk -&gt; câu -&gt; đoạn. Câu sẽ được học từ cụm nhỏ đến cụm to hơn, rồi đến câu, đến đoạn tiếng anh nhé. "}]</t>
-  </si>
-  <si>
-    <t>[{"role":"assistant","content":"Hôm nay chúng ta cùng học cụm 'Brush teeth nhé. Từ chunk -&gt; câu -&gt; đoạn. Câu sẽ được học từ cụm nhỏ đến cụm to hơn, rồi đến câu, đến đoạn tiếng anh nhé. "}]</t>
-  </si>
-  <si>
-    <t>[{"role":"assistant","content":"Hôm nay chúng ta cùng học cụm 'Wash face nhé. Từ chunk -&gt; câu -&gt; đoạn. Câu sẽ được học từ cụm nhỏ đến cụm to hơn, rồi đến câu, đến đoạn tiếng anh nhé. "}]</t>
-  </si>
-  <si>
     <t>```json
 [
-    {
-        "robot": "Cậu biết từ 'thức dậy' trong tiếng Anh là gì không? Để tớ nói cho cậu nhé, nó là 'wake up'. Nào, nhắc lại với tớ: 'wake up'!",
-        "user_answer": "Wake up!",
-        "user_intent": "intent_positive"
-    },
-    {
-        "robot": "Tuyệt vời! 'Wake up' có nghĩa là bắt đầu một ngày mới. Ví dụ: 'I wake up at 7 AM.' Cậu thử nói theo tớ nhé!",
-        "user_answer": "I wake up at 7 AM.",
-        "user_intent": "intent_positive"
-    },
-    {
-        "robot": "Cậu có biết khi nào thì cậu thường 'wake up' không? Tớ thường 'wake up' vào buổi sáng. Cậu thử nói: 'I usually wake up in the morning.'",
-        "user_answer": "I usually wake up in the morning.",
-        "user_intent": "intent_neutral"
-    },
-    {
-        "robot": "Nếu cậu không muốn dậy sớm, cậu có thể nói: 'I don’t want to wake up early.' Cậu có muốn thử không?",
-        "user_answer": "I don’t want to wake up early.",
-        "user_intent": "intent_negative"
-    },
-    {
-        "robot": "Khi cậu thức dậy, cậu có thể cảm thấy buồn ngủ. Cậu có biết câu này không? 'I feel sleepy when I wake up.' Nói thử nào!",
-        "user_answer": "I feel sleepy when I wake up.",
-        "user_intent": "intent_neutral"
-    },
-    {
-        "robot": "Cậu có biết từ nào khác liên quan đến 'wake up' không? Ví dụ: 'get up' cũng có nghĩa là dậy. Nói thử: 'I get up after I wake up.'",
-        "user_answer": "I get up after I wake up.",
-        "user_intent": "intent_learn_more"
-    },
-    {
-        "robot": "Cậu có thể hỏi người khác về thói quen thức dậy của họ như thế này: 'What time do you wake up?' Cậu thử nói theo tớ nhé!",
-        "user_answer": "What time do you wake up?",
-        "user_intent": "intent_learn_more"
-    },
-    {
-        "robot": "Nếu cậu không muốn nói về việc thức dậy, cậu có thể nói: 'I’d rather talk about something else.' Cậu có muốn thử không?",
-        "user_answer": "I’d rather talk about something else.",
-        "user_intent": "intent_negative"
-    },
-    {
-        "robot": "Cậu có biết rằng 'wake up' cũng có thể dùng trong ngữ cảnh khác không? Ví dụ: 'Wake up to reality.' Cậu có hiểu không?",
-        "user_answer": "Um, not really.",
-        "user_intent": "intent_neutral"
-    },
-    {
-        "robot": "Nếu cậu không muốn học thêm về 'wake up', tớ có thể giúp cậu với từ khác. Cậu có muốn không?",
-        "user_answer": "",
-        "user_intent": "silence"
-    },
-    {
-        "robot": "Cậu có thể nói: 'I wake up feeling refreshed.' Câu này có nghĩa là cậu thức dậy với cảm giác thoải mái. Cậu có muốn thử không?",
-        "user_answer": "",
-        "user_intent": "silence"
+    { 
+        "turn": 1, 
+        "robot": "Cậu biết từ 'wake up' trong tiếng Anh có nghĩa là gì không? Nó có nghĩa là 'thức dậy'. Nào, nhắc lại với tớ: wake up!", 
+        "user_answer": "Hay quá!", 
+        "user_intent": "user_intent_positive", 
+        "why_classification": "Người học thể hiện sự hào hứng và thích thú với từ mới." 
+    },
+    { 
+        "turn": 2, 
+        "robot": "Tuyệt vời! 'Wake up' thường được dùng khi chúng ta muốn ai đó dậy. Ví dụ: 'Wake up, it's morning!' Cậu thử nói theo tớ nhé!", 
+        "user_answer": "Wow, dễ hiểu thật!", 
+        "user_intent": "user_intent_positive", 
+        "why_classification": "Người học cảm thấy dễ hiểu và hài lòng với cách giải thích." 
+    },
+    { 
+        "turn": 3, 
+        "robot": "Nhưng nếu cậu không thích dậy sớm thì sao? Cậu có thể nói: 'I don't want to wake up early.' Cậu có muốn thử không?", 
+        "user_answer": "Khó quá, tớ không học nổi đâu!", 
+        "user_intent": "user_intent_negative", 
+        "why_classification": "Người học thể hiện sự không hài lòng và cảm thấy khó khăn." 
+    },
+    { 
+        "turn": 4, 
+        "robot": "Cậu đừng lo! Chúng ta sẽ học từ từ. 'Wake up' cũng có thể dùng trong câu như: 'I wake up at 7 AM every day.' Cậu có thể nói thử không?", 
+        "user_answer": "Ừ thì chắc là đúng.", 
+        "user_intent": "user_intent_neutral", 
+        "why_classification": "Người học phản ứng một cách trung lập, không có cảm xúc mạnh mẽ." 
+    },
+    { 
+        "turn": 5, 
+        "robot": "Cậu có biết có cách nào khác để nói 'thức dậy' không? Chúng ta có thể dùng 'get up' nữa. Ví dụ: 'I get up after I wake up.' Cậu có muốn tìm hiểu thêm không?", 
+        "user_answer": "Chỉ tớ thêm với!", 
+        "user_intent": "user_intent_learn_more", 
+        "why_classification": "Người học thể hiện sự tò mò và muốn biết thêm thông tin." 
+    },
+    { 
+        "turn": 6, 
+        "robot": "Rất tốt! 'Get up' có nghĩa là 'ra khỏi giường'. Cậu có thể nói: 'I get up when my alarm rings.' Cậu có muốn thử không?", 
+        "user_answer": "Tớ vừa mua giày mới, đẹp không cậu?", 
+        "user_intent": "user_intent_fallback", 
+        "why_classification": "Người học chuyển sang chủ đề không liên quan đến bài học." 
+    },
+    { 
+        "turn": 7, 
+        "robot": "Haha, giày mới nghe thú vị đấy! Nhưng quay lại với 'wake up', cậu có thể hỏi: 'What time do you wake up?' Cậu thử hỏi tớ nhé!", 
+        "user_answer": "...", 
+        "user_intent": "user_silence", 
+        "why_classification": "Người học không phản hồi, có thể đang suy nghĩ." 
+    },
+    { 
+        "turn": 8, 
+        "robot": "Không sao! Nếu cậu muốn, chúng ta có thể nói về thói quen buổi sáng. Ví dụ: 'After I wake up, I brush my teeth.' Cậu có muốn thử không?", 
+        "user_answer": "Ok.", 
+        "user_intent": "user_intent_neutral", 
+        "why_classification": "Người học phản ứng một cách trung lập, đồng ý với đề xuất." 
+    },
+    { 
+        "turn": 9, 
+        "robot": "Tuyệt! Cậu có thể nói: 'I wake up, then I eat breakfast.' Cậu có biết bữa sáng trong tiếng Anh là gì không?", 
+        "user_answer": "Có cách dùng nào khác không?", 
+        "user_intent": "user_intent_learn_more", 
+        "why_classification": "Người học muốn biết thêm về cách sử dụng từ." 
+    },
+    { 
+        "turn": 10, 
+        "robot": "Chắc chắn rồi! Cậu có thể dùng 'rise' thay cho 'wake up'. Ví dụ: 'I rise early to exercise.' Cậu có muốn thử không?", 
+        "user_answer": "Khó quá, tớ không học nổi đâu!", 
+        "user_intent": "user_intent_negative", 
+        "why_classification": "Người học lại thể hiện sự không hài lòng với độ khó." 
+    },
+    { 
+        "turn": 11, 
+        "robot": "Cậu đừng nản lòng! Học từ mới là một quá trình. Cuối cùng, cậu có thể nói: 'I wake up and start my day.' Cậu có thể thử nói câu này không?", 
+        "user_answer": "Ừ thì chắc là đúng.", 
+        "user_intent": "user_intent_neutral", 
+        "why_classification": "Người học phản ứng một cách trung lập, không có cảm xúc mạnh mẽ." 
+    },
+    { 
+        "turn": 12, 
+        "robot": "Rất tốt! Cuối cùng, cậu có thể viết một đoạn ngắn về thói quen buổi sáng của mình. Ví dụ: 'I wake up at 6 AM, then I eat breakfast and go to work.' Cậu có muốn thử không?", 
+        "user_answer": "Hay quá!", 
+        "user_intent": "user_intent_positive", 
+        "why_classification": "Người học thể hiện sự hào hứng và thích thú với việc viết đoạn văn." 
     }
 ]
 ```</t>
@@ -220,64 +230,88 @@
     <t>```json
 [
     {
-        "robot": "Cậu biết từ 'đánh răng' trong tiếng Anh là gì không? Để tớ nói cho cậu nhé, nó là 'brush teeth'. Nào, nhắc lại với tớ: 'brush teeth'!",
+        "turn": 1,
+        "robot": "Cậu biết cụm 'Brush teeth' trong tiếng Việt là gì không? Nó có nghĩa là 'Đánh răng'. Nào, nhắc lại với tớ: 'Brush teeth'!",
         "user_answer": "Brush teeth!",
-        "user_intent": "intent_positive"
-    },
-    {
-        "robot": "Tuyệt vời! 'Brush teeth' có nghĩa là làm sạch răng miệng. Cậu có thể nói: 'I brush my teeth every morning.' Nói thử nào!",
-        "user_answer": "I brush my teeth every morning.",
-        "user_intent": "intent_positive"
-    },
-    {
-        "robot": "Cậu có biết tại sao chúng ta cần 'brush teeth' không? Để giữ cho răng khỏe mạnh! Cậu có muốn biết thêm không?",
-        "user_answer": "Có, nhưng tớ không chắc lắm.",
-        "user_intent": "intent_neutral"
-    },
-    {
-        "robot": "Không sao! Khi cậu 'brush teeth', cậu cũng có thể nói: 'I use toothpaste.' Nói thử đi!",
-        "user_answer": "I use toothpaste.",
-        "user_intent": "intent_learn_more"
-    },
-    {
-        "robot": "Cậu có biết rằng nếu không 'brush teeth', răng sẽ bị sâu không? Điều đó không tốt chút nào!",
-        "user_answer": "Tớ không thích học về răng miệng.",
-        "user_intent": "intent_negative"
-    },
-    {
-        "robot": "Cậu có thể hỏi: 'How often do you brush your teeth?' Nói thử câu này nhé!",
-        "user_answer": "How often do you brush your teeth?",
-        "user_intent": "intent_learn_more"
-    },
-    {
-        "robot": "Nếu cậu không muốn nói về 'brush teeth', cậu có thể chia sẻ sở thích khác không?",
-        "user_answer": "Tớ thích chơi game.",
-        "user_intent": "intent_fallback"
-    },
-    {
-        "robot": "Chơi game cũng thú vị! Nhưng nhớ 'brush teeth' sau khi ăn snack nhé! Cậu có làm vậy không?",
-        "user_answer": "Tớ không thường làm vậy.",
-        "user_intent": "intent_negative"
-    },
-    {
-        "robot": "Cậu có biết từ 'toothbrush' không? Đó là bàn chải đánh răng. Nói thử: 'I need a new toothbrush.'",
-        "user_answer": "I need a new toothbrush.",
-        "user_intent": "intent_positive"
-    },
-    {
-        "robot": "Cậu có thể nói: 'I brush my teeth before bed.' Câu này rất quan trọng đấy! Nói thử nào!",
-        "user_answer": "I brush my teeth before bed.",
-        "user_intent": "intent_positive"
-    },
-    {
-        "robot": "Nếu cậu không muốn học thêm về 'brush teeth', cậu có thể nói về điều gì khác không?",
-        "user_answer": "",
-        "user_intent": "silence"
-    },
-    {
-        "robot": "Tớ hiểu rồi, đôi khi cậu cần nghỉ ngơi. Nhưng nhớ 'brush teeth' nhé! Cậu có muốn tiếp tục không?",
-        "user_answer": "",
-        "user_intent": "silence"
+        "user_intent": "user_intent_positive",
+        "why_classification": "Cậu thể hiện sự hào hứng khi nhắc lại cụm từ."
+    },
+    {
+        "turn": 2,
+        "robot": "Tuyệt vời! Cậu có biết tại sao chúng ta cần phải 'brush teeth' không? Để giữ cho răng miệng sạch sẽ và khỏe mạnh. Nói thử: 'I brush my teeth every day.'",
+        "user_answer": "I brush my teeth every day.",
+        "user_intent": "user_intent_positive",
+        "why_classification": "Cậu thể hiện sự hào hứng khi nói câu này."
+    },
+    {
+        "turn": 3,
+        "robot": "Nếu cậu không đánh răng, điều gì sẽ xảy ra nhỉ? Có thể cậu sẽ bị sâu răng. Nói thử: 'If I don’t brush my teeth, I might get cavities.'",
+        "user_answer": "Khó quá, tớ không học nổi đâu!",
+        "user_intent": "user_intent_negative",
+        "why_classification": "Cậu thể hiện sự không hài lòng với câu hỏi."
+    },
+    {
+        "turn": 4,
+        "robot": "Đừng lo, tớ sẽ giúp cậu! Cậu có biết cách nào khác để nói 'brush teeth' không? Chúng ta cũng có thể nói 'clean my teeth'. Nói thử: 'I clean my teeth.'",
+        "user_answer": "Ừ thì chắc là đúng.",
+        "user_intent": "user_intent_neutral",
+        "why_classification": "Cậu phản ứng một cách trung lập với thông tin mới."
+    },
+    {
+        "turn": 5,
+        "robot": "Rất tốt! Bây giờ, cậu có thể dùng 'brush teeth' trong một câu dài hơn không? Ví dụ: 'I brush my teeth after breakfast.' Nói thử nào!",
+        "user_answer": "Chỉ tớ thêm với!",
+        "user_intent": "user_intent_learn_more",
+        "why_classification": "Cậu thể hiện sự tò mò và muốn học thêm."
+    },
+    {
+        "turn": 6,
+        "robot": "Chắc chắn rồi! Một câu khác có thể là: 'I always brush my teeth before going to bed.' Cậu có muốn thử không?",
+        "user_answer": "Tớ vừa mua giày mới, đẹp không cậu?",
+        "user_intent": "user_intent_fallback",
+        "why_classification": "Cậu nói về một chủ đề không liên quan đến việc học."
+    },
+    {
+        "turn": 7,
+        "robot": "Quay lại với 'brush teeth', cậu có biết thời gian tốt nhất để đánh răng là khi nào không? Thường là vào buổi sáng và buổi tối. Nói thử: 'I brush my teeth in the morning and at night.'",
+        "user_answer": "Ok.",
+        "user_intent": "user_intent_neutral",
+        "why_classification": "Cậu phản ứng một cách trung lập với câu hỏi."
+    },
+    {
+        "turn": 8,
+        "robot": "Tốt lắm! Cậu có biết rằng việc đánh răng cũng giúp hơi thở thơm tho không? Nói thử: 'Brushing my teeth keeps my breath fresh.'",
+        "user_answer": "Wow, dễ hiểu thật!",
+        "user_intent": "user_intent_positive",
+        "why_classification": "Cậu thể hiện sự hào hứng và thỏa mãn với thông tin."
+    },
+    {
+        "turn": 9,
+        "robot": "Chính xác! Cậu có biết rằng có nhiều loại bàn chải đánh răng khác nhau không? Ví dụ: bàn chải mềm và bàn chải cứng. Nói thử: 'There are soft and hard toothbrushes.'",
+        "user_answer": "Khó quá, tớ không học nổi đâu!",
+        "user_intent": "user_intent_negative",
+        "why_classification": "Cậu thể hiện sự không hài lòng với thông tin mới."
+    },
+    {
+        "turn": 10,
+        "robot": "Không sao cả! Cậu có muốn biết thêm về cách chọn bàn chải đánh răng không? Nói thử: 'I want to learn about choosing a toothbrush.'",
+        "user_answer": "Có cách dùng nào khác không?",
+        "user_intent": "user_intent_learn_more",
+        "why_classification": "Cậu thể hiện sự tò mò và muốn học thêm."
+    },
+    {
+        "turn": 11,
+        "robot": "Có chứ! Một cách khác để nói là 'toothbrush' là 'bàn chải răng'. Cậu có thể nói: 'I need a new toothbrush.' Nói thử nào!",
+        "user_answer": "...",
+        "user_intent": "user_silence",
+        "why_classification": "Cậu không phản hồi gì."
+    },
+    {
+        "turn": 12,
+        "robot": "Cuối cùng, cậu có thể hỏi người khác: 'How often do you brush your teeth?' Nói thử đi!",
+        "user_answer": "...",
+        "user_intent": "user_silence",
+        "why_classification": "Cậu không phản hồi gì."
     }
 ]
 ```</t>
@@ -286,74 +320,88 @@
     <t>```json
 [
     {
-        "robot": "Cậu biết từ 'rửa mặt' trong tiếng Anh là gì không? Để tớ nói cho cậu nhé, nó là 'wash face'. Nào, nhắc lại với tớ: wash face!",
+        "turn": 1,
+        "robot": "Cậu biết cụm từ 'wash face' trong tiếng Việt là gì không? Nó có nghĩa là 'rửa mặt'. Nào, nhắc lại với tớ: wash face!",
         "user_answer": "Wash face!",
-        "user_intent": "intent_positive"
-    },
-    {
-        "robot": "Tuyệt vời! 'Wash face' có nghĩa là làm sạch mặt. Cậu có thể nói: 'I wash my face every morning.' Cậu thử nói theo tớ nhé!",
-        "user_answer": "I wash my face every morning.",
-        "user_intent": "intent_positive"
-    },
-    {
-        "robot": "Cậu có biết khi nào thì chúng ta nên 'wash face' không? Thường thì sau khi thức dậy hoặc trước khi đi ngủ. Cậu có làm vậy không?",
-        "user_answer": "Không chắc lắm.",
-        "user_intent": "intent_neutral"
-    },
-    {
-        "robot": "Không sao! Nếu cậu không rửa mặt thường xuyên, cậu có thể nói: 'I sometimes forget to wash my face.' Cậu thử nói câu này đi!",
-        "user_answer": "I sometimes forget to wash my face.",
-        "user_intent": "intent_neutral"
-    },
-    {
-        "robot": "Khi cậu rửa mặt, cậu có thể dùng sữa rửa mặt. Trong tiếng Anh, chúng ta gọi là 'facial cleanser'. Cậu có biết không?",
-        "user_answer": "Không, tớ không biết.",
-        "user_intent": "intent_learn_more"
-    },
-    {
-        "robot": "Sữa rửa mặt giúp làm sạch da mặt. Cậu có thể nói: 'I use a facial cleanser to wash my face.' Nói thử nào!",
-        "user_answer": "I use a facial cleanser to wash my face.",
-        "user_intent": "intent_positive"
-    },
-    {
-        "robot": "Nếu cậu không thích rửa mặt, cậu có thể nói: 'I don’t like to wash my face.' Cậu có cảm thấy như vậy không?",
-        "user_answer": "Đúng vậy, tớ không thích.",
-        "user_intent": "intent_negative"
-    },
-    {
-        "robot": "Cậu có thể thử tìm một sản phẩm mà cậu thích hơn. Cậu có muốn biết thêm về các loại sữa rửa mặt không?",
-        "user_answer": "Không, tớ không muốn.",
-        "user_intent": "intent_negative"
-    },
-    {
-        "robot": "Khi cậu rửa mặt, cậu có thể cảm thấy thư giãn. Cậu có thể nói: 'Washing my face feels refreshing.' Cậu có thấy vậy không?",
-        "user_answer": "Có, nhưng không phải lúc nào cũng vậy.",
-        "user_intent": "intent_neutral"
-    },
-    {
-        "robot": "Cậu có thể hỏi người khác: 'How often do you wash your face?' Nói thử câu này đi!",
-        "user_answer": "How often do you wash your face?",
-        "user_intent": "intent_positive"
-    },
-    {
-        "robot": "Nếu cậu không biết cách rửa mặt đúng cách, cậu có thể tìm hiểu thêm. Cậu có muốn tớ hướng dẫn không?",
-        "user_answer": "Tớ không biết, nhưng không cần đâu.",
-        "user_intent": "intent_negative"
-    },
-    {
-        "robot": "Cậu có thể nói: 'I wash my face with warm water.' Cậu có biết tại sao nước ấm lại tốt không?",
-        "user_answer": "Không, tớ không biết.",
-        "user_intent": "intent_learn_more"
-    },
-    {
-        "robot": "Nước ấm giúp mở lỗ chân lông và làm sạch da tốt hơn. Cậu có thể thử nói: 'Warm water helps clean my face better.' Nói thử nào!",
-        "user_answer": "",
-        "user_intent": "silence"
-    },
-    {
-        "robot": "Cậu có thể nói: 'I feel good after washing my face.' Cậu có muốn thử không?",
-        "user_answer": "",
-        "user_intent": "silence"
+        "user_intent": "user_intent_positive",
+        "why_classification": "Cậu thể hiện sự hào hứng khi nhắc lại cụm từ."
+    },
+    {
+        "turn": 2,
+        "robot": "Tuyệt vời! 'Wash face' là một hành động rất quan trọng để giữ gìn vệ sinh. Cậu có thường xuyên rửa mặt không?",
+        "user_answer": "Ừ, tớ rửa mặt mỗi ngày.",
+        "user_intent": "user_intent_neutral",
+        "why_classification": "Cậu trả lời một cách bình thường, không có cảm xúc mạnh."
+    },
+    {
+        "turn": 3,
+        "robot": "Đúng rồi! Cậu có thể nói: 'I wash my face every day.' Nói thử câu này với tớ nhé!",
+        "user_answer": "I wash my face every day.",
+        "user_intent": "user_intent_positive",
+        "why_classification": "Cậu thể hiện sự hào hứng khi nói câu tiếng Anh."
+    },
+    {
+        "turn": 4,
+        "robot": "Rất tốt! Ngoài ra, cậu có biết rằng 'wash face' cũng có thể dùng trong câu hỏi không? Ví dụ: 'Do you wash your face in the morning?' Nói thử nào!",
+        "user_answer": "Do you wash your face in the morning?",
+        "user_intent": "user_intent_learn_more",
+        "why_classification": "Cậu thể hiện sự quan tâm đến cách sử dụng câu hỏi."
+    },
+    {
+        "turn": 5,
+        "robot": "Cậu có biết rằng việc rửa mặt giúp làm sạch bụi bẩn và dầu thừa không? Nói thử: 'Washing my face helps me feel fresh.'",
+        "user_answer": "Washing my face helps me feel fresh.",
+        "user_intent": "user_intent_positive",
+        "why_classification": "Cậu thể hiện sự hào hứng khi nói về lợi ích của việc rửa mặt."
+    },
+    {
+        "turn": 6,
+        "robot": "Đúng rồi! Nhưng nếu cậu không có thời gian, cậu có thể cảm thấy khó chịu. Cậu có nghĩ rằng 'rửa mặt' là một việc khó không?",
+        "user_answer": "Khó quá, tớ không học nổi đâu!",
+        "user_intent": "user_intent_negative",
+        "why_classification": "Cậu thể hiện sự không hài lòng và cảm thấy khó khăn."
+    },
+    {
+        "turn": 7,
+        "robot": "Cậu có thể rửa mặt bằng nước ấm hoặc nước lạnh. Cậu thích dùng nước nào hơn?",
+        "user_answer": "Tớ thích nước lạnh hơn.",
+        "user_intent": "user_intent_neutral",
+        "why_classification": "Cậu trả lời một cách bình thường, không có cảm xúc mạnh."
+    },
+    {
+        "turn": 8,
+        "robot": "Hay quá! Cậu có biết rằng có nhiều sản phẩm rửa mặt khác nhau không? Chỉ tớ thêm với!",
+        "user_answer": "Có, tớ muốn biết thêm.",
+        "user_intent": "user_intent_learn_more",
+        "why_classification": "Cậu thể hiện sự quan tâm và muốn tìm hiểu thêm về sản phẩm."
+    },
+    {
+        "turn": 9,
+        "robot": "Có nhiều loại sữa rửa mặt như gel, kem, hay dạng bọt. Cậu đã thử loại nào chưa?",
+        "user_answer": "Tớ chưa thử loại nào cả.",
+        "user_intent": "user_intent_neutral",
+        "why_classification": "Cậu trả lời một cách bình thường, không có cảm xúc mạnh."
+    },
+    {
+        "turn": 10,
+        "robot": "Cậu có thể hỏi bạn bè: 'What face wash do you use?' Nói thử câu này đi!",
+        "user_answer": "What face wash do you use?",
+        "user_intent": "user_intent_positive",
+        "why_classification": "Cậu thể hiện sự hào hứng khi học cách hỏi người khác."
+    },
+    {
+        "turn": 11,
+        "robot": "Cậu có nghĩ rằng việc rửa mặt là cần thiết không? Học cái này để làm gì nhỉ?",
+        "user_answer": "Tớ không biết nữa.",
+        "user_intent": "user_intent_fallback",
+        "why_classification": "Cậu không liên quan đến chủ đề và thể hiện sự không chắc chắn."
+    },
+    {
+        "turn": 12,
+        "robot": "Rửa mặt giúp giữ cho làn da sạch sẽ và khỏe mạnh. Cậu có muốn thử một sản phẩm mới không?",
+        "user_answer": "...",
+        "user_intent": "user_silence",
+        "why_classification": "Cậu không phản hồi và giữ im lặng."
     }
 ]
 ```</t>
@@ -717,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,140 +805,95 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
+      <c r="J2">
+        <v>49.70320391654968</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2">
-        <v>18.63857102394104</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>31.8862156867981</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3">
-        <v>15.16671109199524</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>38.3831729888916</v>
+      </c>
+      <c r="K4" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4">
-        <v>35.32349014282227</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
